--- a/tut05/output/0401CS16.xlsx
+++ b/tut05/output/0401CS16.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.061224489795919</v>
+        <v>9.06</v>
       </c>
       <c r="C6" t="n">
-        <v>8.727272727272727</v>
+        <v>8.73</v>
       </c>
       <c r="D6" t="n">
-        <v>8.720930232558139</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>9.021276595744681</v>
+        <v>9.02</v>
       </c>
       <c r="F6" t="n">
-        <v>8.928571428571429</v>
+        <v>8.93</v>
       </c>
       <c r="G6" t="n">
         <v>8.25</v>
       </c>
       <c r="H6" t="n">
-        <v>8.951219512195122</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>8.85</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.061224489795919</v>
+        <v>9.06</v>
       </c>
       <c r="C8" t="n">
-        <v>8.903225806451612</v>
+        <v>8.9</v>
       </c>
       <c r="D8" t="n">
-        <v>8.845588235294118</v>
+        <v>8.85</v>
       </c>
       <c r="E8" t="n">
-        <v>8.890710382513662</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>8.897777777777778</v>
+        <v>8.9</v>
       </c>
       <c r="G8" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>8.820261437908497</v>
+        <v>8.82</v>
       </c>
       <c r="I8" t="n">
-        <v>8.823699421965317</v>
+        <v>8.82</v>
       </c>
     </row>
   </sheetData>
